--- a/Assets/Studies/CHI26_Study3_Motion/data_processing/analysis/p10/p10_analysis.xlsx
+++ b/Assets/Studies/CHI26_Study3_Motion/data_processing/analysis/p10/p10_analysis.xlsx
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -816,16 +816,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -848,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -880,16 +880,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -976,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -985,7 +985,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1008,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1017,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1072,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1081,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1177,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1200,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1360,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -1456,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1465,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2163,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2963,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>1</v>
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>1</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
         <v>1</v>
@@ -4403,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
         <v>1</v>
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -4851,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5139,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
         <v>1</v>
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
         <v>1</v>
@@ -6328,10 +6328,10 @@
         <v>0.1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="3">
@@ -6345,10 +6345,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1636634176769943</v>
+        <v>0.1469861839480328</v>
       </c>
     </row>
     <row r="4">
@@ -6379,10 +6379,10 @@
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.1636634176769943</v>
       </c>
     </row>
     <row r="6">
@@ -6396,10 +6396,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1636634176769943</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="7">
@@ -6413,10 +6413,10 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="8">
@@ -6532,7 +6532,7 @@
         <v>0.1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -6600,10 +6600,10 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.09999999999999999</v>
       </c>
     </row>
     <row r="19">
